--- a/Docs/invinciblezone.com.xlsx
+++ b/Docs/invinciblezone.com.xlsx
@@ -4,17 +4,17 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="5"/>
   </bookViews>
   <sheets>
-    <sheet name="Admin" sheetId="7" r:id="rId1"/>
-    <sheet name="Home" sheetId="1" r:id="rId2"/>
-    <sheet name="Gallery" sheetId="2" r:id="rId3"/>
-    <sheet name="Expense Manager" sheetId="3" r:id="rId4"/>
-    <sheet name="Travel India" sheetId="4" r:id="rId5"/>
-    <sheet name="Family" sheetId="5" r:id="rId6"/>
-    <sheet name="Goals And Achievement" sheetId="6" r:id="rId7"/>
-    <sheet name="Projects" sheetId="8" r:id="rId8"/>
+    <sheet name="Home" sheetId="1" r:id="rId1"/>
+    <sheet name="Gallery" sheetId="2" r:id="rId2"/>
+    <sheet name="Expense Manager" sheetId="3" r:id="rId3"/>
+    <sheet name="Travel India" sheetId="4" r:id="rId4"/>
+    <sheet name="About" sheetId="5" r:id="rId5"/>
+    <sheet name="Goals And Achievement" sheetId="6" r:id="rId6"/>
+    <sheet name="Projects" sheetId="8" r:id="rId7"/>
+    <sheet name="Admin" sheetId="7" r:id="rId8"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
@@ -459,6 +459,164 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="7.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.85546875" style="2" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="6"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:F1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -506,162 +664,4 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F5"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="7.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.85546875" style="2" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="6"/>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:F1"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/Docs/invinciblezone.com.xlsx
+++ b/Docs/invinciblezone.com.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="5"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Home" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="21">
   <si>
     <t>Famiul</t>
   </si>
@@ -29,18 +29,6 @@
     <t>Home</t>
   </si>
   <si>
-    <t>Slider</t>
-  </si>
-  <si>
-    <t>Grids</t>
-  </si>
-  <si>
-    <t>We Believe</t>
-  </si>
-  <si>
-    <t>Site Links</t>
-  </si>
-  <si>
     <t>Footer</t>
   </si>
   <si>
@@ -60,6 +48,42 @@
   </si>
   <si>
     <t>Projects</t>
+  </si>
+  <si>
+    <t>Post</t>
+  </si>
+  <si>
+    <t>Copy right</t>
+  </si>
+  <si>
+    <t>Text</t>
+  </si>
+  <si>
+    <t>Image</t>
+  </si>
+  <si>
+    <t>Video</t>
+  </si>
+  <si>
+    <t>Sign In</t>
+  </si>
+  <si>
+    <t>jQuery Validation</t>
+  </si>
+  <si>
+    <t>Session Handling</t>
+  </si>
+  <si>
+    <t>DB Handle</t>
+  </si>
+  <si>
+    <t>Forgot Password</t>
+  </si>
+  <si>
+    <t>Sign Up</t>
+  </si>
+  <si>
+    <t>Logout</t>
   </si>
 </sst>
 </file>
@@ -83,7 +107,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -96,8 +120,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -142,16 +172,33 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -459,70 +506,101 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4:D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="7.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" style="8"/>
+    <col min="4" max="4" width="16.7109375" style="8" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" style="8"/>
+    <col min="7" max="7" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="6"/>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" s="1" t="s">
+      <c r="C2" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="6" t="s">
         <v>4</v>
       </c>
       <c r="E2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="C4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>10</v>
+      <c r="C5" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D6" s="7" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A1:G1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -589,7 +667,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
@@ -607,7 +685,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -634,18 +712,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="6"/>
+      <c r="A1" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="10"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="1"/>
@@ -655,7 +733,7 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
